--- a/python/two/night2 SD t1=6 t2=3 δ=0.95.xlsx
+++ b/python/two/night2 SD t1=6 t2=3 δ=0.95.xlsx
@@ -478,17 +478,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.48e-07</t>
+          <t>1.9e-07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>1.06e+01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>827.0</t>
         </is>
       </c>
     </row>
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.60e+00</t>
+          <t>5.68e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00425</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.53e+00</t>
+          <t>5.99e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>160.0</t>
+          <t>0.00833</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.60e+00</t>
+          <t>5.68e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00425</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.53e+00</t>
+          <t>5.98e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>160.0</t>
+          <t>0.0114</t>
         </is>
       </c>
     </row>
@@ -569,22 +569,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.02e-01</t>
+          <t>8.94e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.000343</t>
+          <t>0.000427</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.26e-01</t>
+          <t>1.98e-04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>0.036</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.1e-11</t>
+          <t>1.39e-11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.57e-07</t>
+          <t>8.22e-07</t>
         </is>
       </c>
     </row>
